--- a/lsfm_bf_para.xlsx
+++ b/lsfm_bf_para.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McGinley3\Documents\GitHub\lsfm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FF2D51-211D-46D5-A9EE-8BB2CE6AAC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C76AC9F-1A74-42E5-A91B-C5289055B9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57810" yWindow="105" windowWidth="37815" windowHeight="8880" xr2:uid="{853D27A6-5967-4330-83D7-34154E44BD7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{853D27A6-5967-4330-83D7-34154E44BD7A}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="bf" sheetId="1" r:id="rId1"/>
+    <sheet name="band" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="56">
   <si>
     <t>df_loc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,18 +256,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -300,7 +301,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -316,7 +317,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -615,33 +616,33 @@
   <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O71" sqref="O71"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6328125" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" customWidth="1"/>
-    <col min="15" max="15" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>148</v>
       </c>
@@ -746,7 +747,7 @@
         <v>27961</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>148</v>
       </c>
@@ -792,7 +793,7 @@
         <v>27950</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>149</v>
       </c>
@@ -838,7 +839,7 @@
         <v>27878</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>149</v>
       </c>
@@ -884,7 +885,7 @@
         <v>27729</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>151</v>
       </c>
@@ -930,7 +931,7 @@
         <v>27822</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>151</v>
       </c>
@@ -976,7 +977,7 @@
         <v>27429</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>152</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>27819</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>152</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>27946</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>155</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>28262</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>155</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>28760</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>156</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>28203</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>156</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>27722</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>158</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>28068</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>158</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>27775</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>160</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>28186</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>160</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>27989</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>179</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>27712</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>179</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>28004</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>180</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>27884</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>180</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>27632</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>184</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>28593</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>184</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>29374</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>185</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>28154</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>185</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>28966</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>190</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>27656</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>190</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>27549</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>191</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>27363</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>191</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>27481</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>195</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>27679</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>195</v>
       </c>
@@ -2107,7 +2108,7 @@
         <v>28096</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>197</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>27921</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>197</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>28325</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>198</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>27729</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>198</v>
       </c>
@@ -2303,7 +2304,7 @@
         <v>27891</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>201</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>28822</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>201</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>30707</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>205</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>32021</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>205</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>32812</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>210</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>29180</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>210</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>30105</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>211</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>29842</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>211</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>29892</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>213</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>28524</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:19">
       <c r="A45">
         <v>213</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>32148</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:19">
       <c r="A46">
         <v>215</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>28869</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:19">
       <c r="A47">
         <v>215</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>28246</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:19">
       <c r="A48">
         <v>225</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>27568</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:19">
       <c r="A49">
         <v>225</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>28428</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:19">
       <c r="A50">
         <v>226</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>27820</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:19">
       <c r="A51">
         <v>226</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>28296</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:19">
       <c r="A52">
         <v>228</v>
       </c>
@@ -3121,7 +3122,7 @@
         <v>28060</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:19">
       <c r="A53">
         <v>228</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>28885</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:19">
       <c r="A54">
         <v>231</v>
       </c>
@@ -3219,7 +3220,7 @@
         <v>27769</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:19">
       <c r="A55">
         <v>231</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>27510</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:19">
       <c r="A56">
         <v>232</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>27543</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:19">
       <c r="A57">
         <v>232</v>
       </c>
@@ -3366,7 +3367,7 @@
         <v>27410</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:19">
       <c r="A58">
         <v>235</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>28625</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:19">
       <c r="A59">
         <v>235</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>28551</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:19">
       <c r="A60">
         <v>236</v>
       </c>
@@ -3513,7 +3514,7 @@
         <v>28845</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:19">
       <c r="A61">
         <v>236</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>28367</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:19">
       <c r="A62">
         <v>238</v>
       </c>
@@ -3611,7 +3612,7 @@
         <v>29049</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:19">
       <c r="A63">
         <v>238</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>28907</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:19">
       <c r="A64">
         <v>241</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>27738</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:19">
       <c r="A65">
         <v>241</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>27775</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:19">
       <c r="A66">
         <v>244</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>28139</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:19">
       <c r="A67">
         <v>244</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>29891</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:19">
       <c r="A68">
         <v>246</v>
       </c>
@@ -3896,7 +3897,7 @@
         <v>28112</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:19">
       <c r="A69">
         <v>246</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>29496</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:19">
       <c r="A70">
         <v>247</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>27673</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:19">
       <c r="A71">
         <v>247</v>
       </c>
@@ -4041,6 +4042,3038 @@
       </c>
       <c r="S71">
         <v>29217</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBE2CCB-C4BD-419B-A41D-C8E554C6D42E}">
+  <dimension ref="A1:O71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S30" sqref="S30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>1668</v>
+      </c>
+      <c r="F2">
+        <v>3105</v>
+      </c>
+      <c r="G2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H2">
+        <f>G2/2</f>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="I2">
+        <v>2123</v>
+      </c>
+      <c r="J2">
+        <v>9846</v>
+      </c>
+      <c r="K2">
+        <v>14534</v>
+      </c>
+      <c r="M2">
+        <v>24557</v>
+      </c>
+      <c r="N2">
+        <v>27007</v>
+      </c>
+      <c r="O2">
+        <v>27949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>1671</v>
+      </c>
+      <c r="F3">
+        <v>2709</v>
+      </c>
+      <c r="G3">
+        <v>5.1820000000000004</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">G3/2</f>
+        <v>2.5910000000000002</v>
+      </c>
+      <c r="I3">
+        <v>2029</v>
+      </c>
+      <c r="J3">
+        <v>5279</v>
+      </c>
+      <c r="K3">
+        <v>7250</v>
+      </c>
+      <c r="M3">
+        <v>24380</v>
+      </c>
+      <c r="N3">
+        <v>27039</v>
+      </c>
+      <c r="O3">
+        <v>28106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>1659</v>
+      </c>
+      <c r="F4">
+        <v>3817</v>
+      </c>
+      <c r="G4">
+        <v>7.3120000000000003</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>3.6560000000000001</v>
+      </c>
+      <c r="I4">
+        <v>2139</v>
+      </c>
+      <c r="J4">
+        <v>10554</v>
+      </c>
+      <c r="K4">
+        <v>12117</v>
+      </c>
+      <c r="M4">
+        <v>23794</v>
+      </c>
+      <c r="N4">
+        <v>26953</v>
+      </c>
+      <c r="O4">
+        <v>27590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>1650</v>
+      </c>
+      <c r="F5">
+        <v>3002</v>
+      </c>
+      <c r="G5">
+        <v>4.8849999999999998</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2.4424999999999999</v>
+      </c>
+      <c r="I5">
+        <v>2019</v>
+      </c>
+      <c r="J5">
+        <v>12343</v>
+      </c>
+      <c r="K5">
+        <v>17219</v>
+      </c>
+      <c r="M5">
+        <v>23824</v>
+      </c>
+      <c r="N5">
+        <v>26947</v>
+      </c>
+      <c r="O5">
+        <v>27855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>1622</v>
+      </c>
+      <c r="F6">
+        <v>3489</v>
+      </c>
+      <c r="G6">
+        <v>6.1710000000000003</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>3.0855000000000001</v>
+      </c>
+      <c r="I6">
+        <v>2079</v>
+      </c>
+      <c r="J6">
+        <v>9212</v>
+      </c>
+      <c r="K6">
+        <v>11058</v>
+      </c>
+      <c r="M6">
+        <v>24493</v>
+      </c>
+      <c r="N6">
+        <v>27035</v>
+      </c>
+      <c r="O6">
+        <v>27762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>1661</v>
+      </c>
+      <c r="F7">
+        <v>2701</v>
+      </c>
+      <c r="G7">
+        <v>3.448</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.724</v>
+      </c>
+      <c r="I7">
+        <v>2034</v>
+      </c>
+      <c r="J7">
+        <v>6958</v>
+      </c>
+      <c r="K7">
+        <v>12373</v>
+      </c>
+      <c r="M7">
+        <v>24464</v>
+      </c>
+      <c r="N7">
+        <v>27090</v>
+      </c>
+      <c r="O7">
+        <v>28276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>1632</v>
+      </c>
+      <c r="F8">
+        <v>2929</v>
+      </c>
+      <c r="G8">
+        <v>6.3410000000000002</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>3.1705000000000001</v>
+      </c>
+      <c r="I8">
+        <v>2059</v>
+      </c>
+      <c r="J8">
+        <v>6474</v>
+      </c>
+      <c r="K8">
+        <v>9377</v>
+      </c>
+      <c r="M8">
+        <v>23620</v>
+      </c>
+      <c r="N8">
+        <v>27021</v>
+      </c>
+      <c r="O8">
+        <v>27812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>1591</v>
+      </c>
+      <c r="F9">
+        <v>2795</v>
+      </c>
+      <c r="G9">
+        <v>3.7629999999999999</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.8815</v>
+      </c>
+      <c r="I9">
+        <v>2040</v>
+      </c>
+      <c r="J9">
+        <v>5827</v>
+      </c>
+      <c r="K9">
+        <v>6870</v>
+      </c>
+      <c r="M9">
+        <v>23966</v>
+      </c>
+      <c r="N9">
+        <v>27017</v>
+      </c>
+      <c r="O9">
+        <v>27945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>155</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>1627</v>
+      </c>
+      <c r="F10">
+        <v>3543</v>
+      </c>
+      <c r="G10">
+        <v>8.5190000000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>4.2595000000000001</v>
+      </c>
+      <c r="I10">
+        <v>2333</v>
+      </c>
+      <c r="J10">
+        <v>5386</v>
+      </c>
+      <c r="K10">
+        <v>7085</v>
+      </c>
+      <c r="M10">
+        <v>23443</v>
+      </c>
+      <c r="N10">
+        <v>26906</v>
+      </c>
+      <c r="O10">
+        <v>28749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>1620</v>
+      </c>
+      <c r="F11">
+        <v>3577</v>
+      </c>
+      <c r="G11">
+        <v>7.1269999999999998</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>3.5634999999999999</v>
+      </c>
+      <c r="I11">
+        <v>2547</v>
+      </c>
+      <c r="J11">
+        <v>5327</v>
+      </c>
+      <c r="K11">
+        <v>8529</v>
+      </c>
+      <c r="M11">
+        <v>24280</v>
+      </c>
+      <c r="N11">
+        <v>26609</v>
+      </c>
+      <c r="O11">
+        <v>28334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>1745</v>
+      </c>
+      <c r="F12">
+        <v>3164</v>
+      </c>
+      <c r="G12">
+        <v>5.0549999999999997</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2.5274999999999999</v>
+      </c>
+      <c r="I12">
+        <v>2381</v>
+      </c>
+      <c r="J12">
+        <v>11727</v>
+      </c>
+      <c r="K12">
+        <v>16869</v>
+      </c>
+      <c r="M12">
+        <v>23736</v>
+      </c>
+      <c r="N12">
+        <v>26856</v>
+      </c>
+      <c r="O12">
+        <v>28322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>1720</v>
+      </c>
+      <c r="F13">
+        <v>3307</v>
+      </c>
+      <c r="G13">
+        <v>4.4489999999999998</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>2.2244999999999999</v>
+      </c>
+      <c r="I13">
+        <v>2401</v>
+      </c>
+      <c r="J13">
+        <v>10726</v>
+      </c>
+      <c r="K13">
+        <v>15178</v>
+      </c>
+      <c r="M13">
+        <v>24257</v>
+      </c>
+      <c r="N13">
+        <v>27068</v>
+      </c>
+      <c r="O13">
+        <v>27719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>1744</v>
+      </c>
+      <c r="F14">
+        <v>3447</v>
+      </c>
+      <c r="G14">
+        <v>4.2690000000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>2.1345000000000001</v>
+      </c>
+      <c r="I14">
+        <v>2425</v>
+      </c>
+      <c r="J14">
+        <v>5050</v>
+      </c>
+      <c r="K14">
+        <v>11787</v>
+      </c>
+      <c r="M14">
+        <v>23571</v>
+      </c>
+      <c r="N14">
+        <v>26942</v>
+      </c>
+      <c r="O14">
+        <v>27852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>158</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>1720</v>
+      </c>
+      <c r="F15">
+        <v>3233</v>
+      </c>
+      <c r="G15">
+        <v>5.0019999999999998</v>
+      </c>
+      <c r="H15">
+        <f>G15/2</f>
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="I15">
+        <v>2315</v>
+      </c>
+      <c r="J15">
+        <v>6266</v>
+      </c>
+      <c r="K15">
+        <v>9566</v>
+      </c>
+      <c r="M15">
+        <v>23783</v>
+      </c>
+      <c r="N15">
+        <v>26626</v>
+      </c>
+      <c r="O15">
+        <v>28092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>1631</v>
+      </c>
+      <c r="F16">
+        <v>3879</v>
+      </c>
+      <c r="G16">
+        <v>7.0839999999999996</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>3.5419999999999998</v>
+      </c>
+      <c r="I16">
+        <v>2364</v>
+      </c>
+      <c r="J16">
+        <v>6593</v>
+      </c>
+      <c r="K16">
+        <v>10366</v>
+      </c>
+      <c r="M16">
+        <v>23634</v>
+      </c>
+      <c r="N16">
+        <v>27053</v>
+      </c>
+      <c r="O16">
+        <v>28243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>160</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>1743</v>
+      </c>
+      <c r="F17">
+        <v>3547</v>
+      </c>
+      <c r="G17">
+        <v>5.7009999999999996</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>2.8504999999999998</v>
+      </c>
+      <c r="I17">
+        <v>2400</v>
+      </c>
+      <c r="J17">
+        <v>5721</v>
+      </c>
+      <c r="K17">
+        <v>11151</v>
+      </c>
+      <c r="M17">
+        <v>22277</v>
+      </c>
+      <c r="N17">
+        <v>27083</v>
+      </c>
+      <c r="O17">
+        <v>27993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>179</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>1304</v>
+      </c>
+      <c r="E18">
+        <v>1556</v>
+      </c>
+      <c r="F18">
+        <v>2600</v>
+      </c>
+      <c r="G18">
+        <v>2.129</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1.0645</v>
+      </c>
+      <c r="I18">
+        <v>1792</v>
+      </c>
+      <c r="J18">
+        <v>4362</v>
+      </c>
+      <c r="K18">
+        <v>4874</v>
+      </c>
+      <c r="M18">
+        <v>23619</v>
+      </c>
+      <c r="N18">
+        <v>26986</v>
+      </c>
+      <c r="O18">
+        <v>28035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>1137</v>
+      </c>
+      <c r="E19">
+        <v>1495</v>
+      </c>
+      <c r="F19">
+        <v>2009</v>
+      </c>
+      <c r="G19">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="I19">
+        <v>1784</v>
+      </c>
+      <c r="J19">
+        <v>2645</v>
+      </c>
+      <c r="K19">
+        <v>4455</v>
+      </c>
+      <c r="M19">
+        <v>24899</v>
+      </c>
+      <c r="N19">
+        <v>26671</v>
+      </c>
+      <c r="O19">
+        <v>27446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>1577</v>
+      </c>
+      <c r="F20">
+        <v>2183</v>
+      </c>
+      <c r="G20">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="I20">
+        <v>1815</v>
+      </c>
+      <c r="J20">
+        <v>3676</v>
+      </c>
+      <c r="K20">
+        <v>5204</v>
+      </c>
+      <c r="M20">
+        <v>20243</v>
+      </c>
+      <c r="N20">
+        <v>26565</v>
+      </c>
+      <c r="O20">
+        <v>27884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>180</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>1621</v>
+      </c>
+      <c r="F21">
+        <v>1997</v>
+      </c>
+      <c r="G21">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="I21">
+        <v>1789</v>
+      </c>
+      <c r="J21">
+        <v>2266</v>
+      </c>
+      <c r="K21">
+        <v>6232</v>
+      </c>
+      <c r="M21">
+        <v>18452</v>
+      </c>
+      <c r="N21">
+        <v>26577</v>
+      </c>
+      <c r="O21">
+        <v>27557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
+        <v>184</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>1643</v>
+      </c>
+      <c r="F22">
+        <v>2429</v>
+      </c>
+      <c r="G22">
+        <v>5.0359999999999996</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>2.5179999999999998</v>
+      </c>
+      <c r="I22">
+        <v>1956</v>
+      </c>
+      <c r="J22">
+        <v>3283</v>
+      </c>
+      <c r="K22">
+        <v>4736</v>
+      </c>
+      <c r="M22">
+        <v>24797</v>
+      </c>
+      <c r="N22">
+        <v>26629</v>
+      </c>
+      <c r="O22">
+        <v>28807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>184</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>1629</v>
+      </c>
+      <c r="F23">
+        <v>2268</v>
+      </c>
+      <c r="G23">
+        <v>1.952</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I23">
+        <v>1924</v>
+      </c>
+      <c r="J23">
+        <v>2738</v>
+      </c>
+      <c r="K23">
+        <v>5824</v>
+      </c>
+      <c r="M23">
+        <v>23825</v>
+      </c>
+      <c r="N23">
+        <v>26513</v>
+      </c>
+      <c r="O23">
+        <v>29646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>185</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>1635</v>
+      </c>
+      <c r="F24">
+        <v>2409</v>
+      </c>
+      <c r="G24">
+        <v>4.3769999999999998</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>2.1884999999999999</v>
+      </c>
+      <c r="I24">
+        <v>1936</v>
+      </c>
+      <c r="J24">
+        <v>3143</v>
+      </c>
+      <c r="K24">
+        <v>5141</v>
+      </c>
+      <c r="M24">
+        <v>25403</v>
+      </c>
+      <c r="N24">
+        <v>26395</v>
+      </c>
+      <c r="O24">
+        <v>28236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>1537</v>
+      </c>
+      <c r="F25">
+        <v>2315</v>
+      </c>
+      <c r="G25">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="I25">
+        <v>1918</v>
+      </c>
+      <c r="J25">
+        <v>3068</v>
+      </c>
+      <c r="K25">
+        <v>4910</v>
+      </c>
+      <c r="M25">
+        <v>24396</v>
+      </c>
+      <c r="N25">
+        <v>26816</v>
+      </c>
+      <c r="O25">
+        <v>28584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>190</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>1714</v>
+      </c>
+      <c r="F26">
+        <v>5644</v>
+      </c>
+      <c r="G26">
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1.3194999999999999</v>
+      </c>
+      <c r="I26">
+        <v>3356</v>
+      </c>
+      <c r="J26">
+        <v>7756</v>
+      </c>
+      <c r="K26">
+        <v>10340</v>
+      </c>
+      <c r="M26">
+        <v>24116</v>
+      </c>
+      <c r="N26">
+        <v>26364</v>
+      </c>
+      <c r="O26">
+        <v>27537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>1792</v>
+      </c>
+      <c r="F27">
+        <v>2847</v>
+      </c>
+      <c r="G27">
+        <v>-1.724</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>-0.86199999999999999</v>
+      </c>
+      <c r="I27">
+        <v>2462</v>
+      </c>
+      <c r="J27">
+        <v>6192</v>
+      </c>
+      <c r="K27">
+        <v>6485</v>
+      </c>
+      <c r="M27">
+        <v>24573</v>
+      </c>
+      <c r="N27">
+        <v>26520</v>
+      </c>
+      <c r="O27">
+        <v>27729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>191</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>1736</v>
+      </c>
+      <c r="F28">
+        <v>4984</v>
+      </c>
+      <c r="G28">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0.52449999999999997</v>
+      </c>
+      <c r="I28">
+        <v>3514</v>
+      </c>
+      <c r="J28">
+        <v>6200</v>
+      </c>
+      <c r="K28">
+        <v>11633</v>
+      </c>
+      <c r="M28">
+        <v>24153</v>
+      </c>
+      <c r="N28">
+        <v>26569</v>
+      </c>
+      <c r="O28">
+        <v>27459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>191</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>2064</v>
+      </c>
+      <c r="E29">
+        <v>2306</v>
+      </c>
+      <c r="F29">
+        <v>3387</v>
+      </c>
+      <c r="G29">
+        <v>-0.54</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>-0.27</v>
+      </c>
+      <c r="I29">
+        <v>2575</v>
+      </c>
+      <c r="J29">
+        <v>4641</v>
+      </c>
+      <c r="K29">
+        <v>5362</v>
+      </c>
+      <c r="M29">
+        <v>23928</v>
+      </c>
+      <c r="N29">
+        <v>26508</v>
+      </c>
+      <c r="O29">
+        <v>27343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>195</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>1635</v>
+      </c>
+      <c r="F30">
+        <v>2885</v>
+      </c>
+      <c r="G30">
+        <v>25.789000000000001</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>12.894500000000001</v>
+      </c>
+      <c r="I30">
+        <v>2055</v>
+      </c>
+      <c r="J30">
+        <v>10103</v>
+      </c>
+      <c r="K30">
+        <v>12218</v>
+      </c>
+      <c r="M30">
+        <v>24256</v>
+      </c>
+      <c r="N30">
+        <v>26921</v>
+      </c>
+      <c r="O30">
+        <v>28106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
+        <v>195</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>1638</v>
+      </c>
+      <c r="F31">
+        <v>2680</v>
+      </c>
+      <c r="G31">
+        <v>17.664999999999999</v>
+      </c>
+      <c r="H31">
+        <f>G31/2</f>
+        <v>8.8324999999999996</v>
+      </c>
+      <c r="I31">
+        <v>2014</v>
+      </c>
+      <c r="J31">
+        <v>4551</v>
+      </c>
+      <c r="K31">
+        <v>7306</v>
+      </c>
+      <c r="M31">
+        <v>23843</v>
+      </c>
+      <c r="N31">
+        <v>26902</v>
+      </c>
+      <c r="O31">
+        <v>28231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32">
+        <v>197</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>1734</v>
+      </c>
+      <c r="F32">
+        <v>2914</v>
+      </c>
+      <c r="G32">
+        <v>5.3019999999999996</v>
+      </c>
+      <c r="H32">
+        <f>G32/2</f>
+        <v>2.6509999999999998</v>
+      </c>
+      <c r="I32">
+        <v>2148</v>
+      </c>
+      <c r="J32">
+        <v>28875</v>
+      </c>
+      <c r="K32">
+        <v>5492</v>
+      </c>
+      <c r="M32">
+        <v>23541</v>
+      </c>
+      <c r="N32">
+        <v>27422</v>
+      </c>
+      <c r="O32">
+        <v>27925</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>1700</v>
+      </c>
+      <c r="F33">
+        <v>2800</v>
+      </c>
+      <c r="G33">
+        <v>3.8959999999999999</v>
+      </c>
+      <c r="H33">
+        <f>G33/2</f>
+        <v>1.948</v>
+      </c>
+      <c r="I33">
+        <v>2111</v>
+      </c>
+      <c r="J33">
+        <v>29313</v>
+      </c>
+      <c r="K33">
+        <v>4377</v>
+      </c>
+      <c r="M33">
+        <v>25546</v>
+      </c>
+      <c r="N33">
+        <v>27299</v>
+      </c>
+      <c r="O33">
+        <v>28323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>1673</v>
+      </c>
+      <c r="F34">
+        <v>2888</v>
+      </c>
+      <c r="G34">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="H34">
+        <f>G34/2</f>
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="I34">
+        <v>2026</v>
+      </c>
+      <c r="J34">
+        <v>27507</v>
+      </c>
+      <c r="K34">
+        <v>7539</v>
+      </c>
+      <c r="M34">
+        <v>23374</v>
+      </c>
+      <c r="N34">
+        <v>27528</v>
+      </c>
+      <c r="O34">
+        <v>28151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>1676</v>
+      </c>
+      <c r="F35">
+        <v>2726</v>
+      </c>
+      <c r="G35">
+        <v>2.569</v>
+      </c>
+      <c r="H35">
+        <f>G35/2</f>
+        <v>1.2845</v>
+      </c>
+      <c r="I35">
+        <v>2074</v>
+      </c>
+      <c r="J35">
+        <v>28498</v>
+      </c>
+      <c r="K35">
+        <v>6833</v>
+      </c>
+      <c r="M35">
+        <v>24469</v>
+      </c>
+      <c r="N35">
+        <v>27105</v>
+      </c>
+      <c r="O35">
+        <v>27474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>1751</v>
+      </c>
+      <c r="F36">
+        <v>6726</v>
+      </c>
+      <c r="G36">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="I36">
+        <v>2910</v>
+      </c>
+      <c r="J36">
+        <v>10319</v>
+      </c>
+      <c r="K36">
+        <v>11307</v>
+      </c>
+      <c r="M36">
+        <v>24439</v>
+      </c>
+      <c r="N36">
+        <v>27015</v>
+      </c>
+      <c r="O36">
+        <v>28640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
+        <v>201</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>1713</v>
+      </c>
+      <c r="F37">
+        <v>5734</v>
+      </c>
+      <c r="G37">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="I37">
+        <v>3052</v>
+      </c>
+      <c r="J37">
+        <v>18675</v>
+      </c>
+      <c r="K37">
+        <v>8880</v>
+      </c>
+      <c r="M37">
+        <v>25235</v>
+      </c>
+      <c r="N37">
+        <v>27449</v>
+      </c>
+      <c r="O37">
+        <v>30698</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>205</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>2223</v>
+      </c>
+      <c r="F38">
+        <v>3089</v>
+      </c>
+      <c r="G38">
+        <v>1.3879999999999999</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="I38">
+        <v>2643</v>
+      </c>
+      <c r="J38">
+        <v>4186</v>
+      </c>
+      <c r="K38">
+        <v>8607</v>
+      </c>
+      <c r="M38">
+        <v>23732</v>
+      </c>
+      <c r="N38">
+        <v>27147</v>
+      </c>
+      <c r="O38">
+        <v>29462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>1568</v>
+      </c>
+      <c r="F39">
+        <v>2890</v>
+      </c>
+      <c r="G39">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>0.49249999999999999</v>
+      </c>
+      <c r="I39">
+        <v>2387</v>
+      </c>
+      <c r="J39">
+        <v>4034</v>
+      </c>
+      <c r="K39">
+        <v>6778</v>
+      </c>
+      <c r="M39">
+        <v>24240</v>
+      </c>
+      <c r="N39">
+        <v>27165</v>
+      </c>
+      <c r="O39">
+        <v>30152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40">
+        <v>210</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40">
+        <v>1648</v>
+      </c>
+      <c r="F40">
+        <v>3466</v>
+      </c>
+      <c r="G40">
+        <v>1.47</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I40">
+        <v>1891</v>
+      </c>
+      <c r="J40">
+        <v>4856</v>
+      </c>
+      <c r="K40">
+        <v>5448</v>
+      </c>
+      <c r="M40">
+        <v>23147</v>
+      </c>
+      <c r="N40">
+        <v>27529</v>
+      </c>
+      <c r="O40">
+        <v>29479</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41">
+        <v>210</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>1992</v>
+      </c>
+      <c r="F41">
+        <v>3386</v>
+      </c>
+      <c r="G41">
+        <v>-2.9740000000000002</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>-1.4870000000000001</v>
+      </c>
+      <c r="I41">
+        <v>2578</v>
+      </c>
+      <c r="J41">
+        <v>28130</v>
+      </c>
+      <c r="K41">
+        <v>7769</v>
+      </c>
+      <c r="M41">
+        <v>24884</v>
+      </c>
+      <c r="N41">
+        <v>27477</v>
+      </c>
+      <c r="O41">
+        <v>29896</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42">
+        <v>211</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>1662</v>
+      </c>
+      <c r="F42">
+        <v>2022</v>
+      </c>
+      <c r="G42">
+        <v>4.0810000000000004</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>2.0405000000000002</v>
+      </c>
+      <c r="I42">
+        <v>1818</v>
+      </c>
+      <c r="J42">
+        <v>3142</v>
+      </c>
+      <c r="K42">
+        <v>5824</v>
+      </c>
+      <c r="M42">
+        <v>23503</v>
+      </c>
+      <c r="N42">
+        <v>27515</v>
+      </c>
+      <c r="O42">
+        <v>30458</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43">
+        <v>211</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>1671</v>
+      </c>
+      <c r="F43">
+        <v>2023</v>
+      </c>
+      <c r="G43">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>1.1665000000000001</v>
+      </c>
+      <c r="I43">
+        <v>1822</v>
+      </c>
+      <c r="J43">
+        <v>2218</v>
+      </c>
+      <c r="K43">
+        <v>3362</v>
+      </c>
+      <c r="M43">
+        <v>24603</v>
+      </c>
+      <c r="N43">
+        <v>27004</v>
+      </c>
+      <c r="O43">
+        <v>29893</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44">
+        <v>2288</v>
+      </c>
+      <c r="F44">
+        <v>2856</v>
+      </c>
+      <c r="G44">
+        <f>1.887+0.489</f>
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="H44">
+        <f>G44/2-0.489</f>
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="I44">
+        <v>2551</v>
+      </c>
+      <c r="J44">
+        <v>3047</v>
+      </c>
+      <c r="K44">
+        <v>5144</v>
+      </c>
+      <c r="M44">
+        <v>23358</v>
+      </c>
+      <c r="N44">
+        <v>27401</v>
+      </c>
+      <c r="O44">
+        <v>28521</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45">
+        <v>213</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <v>1645</v>
+      </c>
+      <c r="F45">
+        <v>1914</v>
+      </c>
+      <c r="G45">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>0.3175</v>
+      </c>
+      <c r="I45">
+        <v>1763</v>
+      </c>
+      <c r="J45">
+        <v>2064</v>
+      </c>
+      <c r="K45">
+        <v>3145</v>
+      </c>
+      <c r="M45">
+        <v>21483</v>
+      </c>
+      <c r="N45">
+        <v>27107</v>
+      </c>
+      <c r="O45">
+        <v>29875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46">
+        <v>215</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46">
+        <v>1776</v>
+      </c>
+      <c r="F46">
+        <v>2705</v>
+      </c>
+      <c r="G46">
+        <v>4.8280000000000003</v>
+      </c>
+      <c r="H46">
+        <f>G46/2</f>
+        <v>2.4140000000000001</v>
+      </c>
+      <c r="I46">
+        <v>2106</v>
+      </c>
+      <c r="J46">
+        <v>6340</v>
+      </c>
+      <c r="K46">
+        <v>7716</v>
+      </c>
+      <c r="M46">
+        <v>22733</v>
+      </c>
+      <c r="N46">
+        <v>27075</v>
+      </c>
+      <c r="O46">
+        <v>27293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47">
+        <v>215</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <v>1707</v>
+      </c>
+      <c r="F47">
+        <v>2957</v>
+      </c>
+      <c r="G47">
+        <v>3.3140000000000001</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>1.657</v>
+      </c>
+      <c r="I47">
+        <v>2080</v>
+      </c>
+      <c r="J47">
+        <v>5197</v>
+      </c>
+      <c r="K47">
+        <v>7382</v>
+      </c>
+      <c r="M47">
+        <v>23356</v>
+      </c>
+      <c r="N47">
+        <v>26855</v>
+      </c>
+      <c r="O47">
+        <v>27438</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48">
+        <v>225</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48">
+        <v>1492</v>
+      </c>
+      <c r="F48">
+        <v>2578</v>
+      </c>
+      <c r="G48">
+        <v>4.5640000000000001</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>2.282</v>
+      </c>
+      <c r="I48">
+        <v>1759</v>
+      </c>
+      <c r="J48">
+        <v>3757</v>
+      </c>
+      <c r="K48">
+        <v>4904</v>
+      </c>
+      <c r="M48">
+        <v>23422</v>
+      </c>
+      <c r="N48">
+        <v>26645</v>
+      </c>
+      <c r="O48">
+        <v>27721</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49">
+        <v>225</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49">
+        <v>1360</v>
+      </c>
+      <c r="F49">
+        <v>1537</v>
+      </c>
+      <c r="G49">
+        <v>0.214</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>0.107</v>
+      </c>
+      <c r="I49">
+        <v>1484</v>
+      </c>
+      <c r="J49">
+        <v>1649</v>
+      </c>
+      <c r="K49">
+        <v>4164</v>
+      </c>
+      <c r="M49">
+        <v>23000</v>
+      </c>
+      <c r="N49">
+        <v>26685</v>
+      </c>
+      <c r="O49">
+        <v>28468</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50">
+        <v>226</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50">
+        <v>1476</v>
+      </c>
+      <c r="F50">
+        <v>2204</v>
+      </c>
+      <c r="G50">
+        <v>3.1509999999999998</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>1.5754999999999999</v>
+      </c>
+      <c r="I50">
+        <v>1743</v>
+      </c>
+      <c r="J50">
+        <v>3135</v>
+      </c>
+      <c r="K50">
+        <v>4130</v>
+      </c>
+      <c r="M50">
+        <v>23148</v>
+      </c>
+      <c r="N50">
+        <v>26604</v>
+      </c>
+      <c r="O50">
+        <v>27840</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51">
+        <v>226</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51">
+        <v>1689</v>
+      </c>
+      <c r="F51">
+        <v>2037</v>
+      </c>
+      <c r="G51">
+        <v>0.374</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0.187</v>
+      </c>
+      <c r="I51">
+        <v>1898</v>
+      </c>
+      <c r="J51">
+        <v>2160</v>
+      </c>
+      <c r="K51">
+        <v>4330</v>
+      </c>
+      <c r="M51">
+        <v>21888</v>
+      </c>
+      <c r="N51">
+        <v>26702</v>
+      </c>
+      <c r="O51">
+        <v>28291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52">
+        <v>228</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52">
+        <v>1732</v>
+      </c>
+      <c r="F52">
+        <v>2632</v>
+      </c>
+      <c r="G52">
+        <v>1.55</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I52">
+        <v>2037</v>
+      </c>
+      <c r="J52">
+        <v>3727</v>
+      </c>
+      <c r="K52">
+        <v>5512</v>
+      </c>
+      <c r="M52">
+        <v>23501</v>
+      </c>
+      <c r="N52">
+        <v>26635</v>
+      </c>
+      <c r="O52">
+        <v>27977</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53">
+        <v>228</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>1895</v>
+      </c>
+      <c r="F53">
+        <v>2183</v>
+      </c>
+      <c r="G53">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="I53">
+        <v>2058</v>
+      </c>
+      <c r="J53">
+        <v>2523</v>
+      </c>
+      <c r="K53">
+        <v>3625</v>
+      </c>
+      <c r="M53">
+        <v>25061</v>
+      </c>
+      <c r="N53">
+        <v>26644</v>
+      </c>
+      <c r="O53">
+        <v>27993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54">
+        <v>231</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54">
+        <v>1647</v>
+      </c>
+      <c r="F54">
+        <v>1978</v>
+      </c>
+      <c r="G54">
+        <v>3.28</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>1.64</v>
+      </c>
+      <c r="I54">
+        <v>1794</v>
+      </c>
+      <c r="J54">
+        <v>30789</v>
+      </c>
+      <c r="K54">
+        <v>3611</v>
+      </c>
+      <c r="M54">
+        <v>24038</v>
+      </c>
+      <c r="N54">
+        <v>26526</v>
+      </c>
+      <c r="O54">
+        <v>27683</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55">
+        <v>231</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55">
+        <v>1633</v>
+      </c>
+      <c r="F55">
+        <v>1937</v>
+      </c>
+      <c r="G55">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="I55">
+        <v>1782</v>
+      </c>
+      <c r="J55">
+        <v>2192</v>
+      </c>
+      <c r="K55">
+        <v>5843</v>
+      </c>
+      <c r="M55">
+        <v>23153</v>
+      </c>
+      <c r="N55">
+        <v>26615</v>
+      </c>
+      <c r="O55">
+        <v>27522</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56">
+        <v>232</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56">
+        <v>1619</v>
+      </c>
+      <c r="F56">
+        <v>2003</v>
+      </c>
+      <c r="G56">
+        <v>1.891</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="I56">
+        <v>1788</v>
+      </c>
+      <c r="J56">
+        <v>30061</v>
+      </c>
+      <c r="K56">
+        <v>6196</v>
+      </c>
+      <c r="M56">
+        <v>24101</v>
+      </c>
+      <c r="N56">
+        <v>26468</v>
+      </c>
+      <c r="O56">
+        <v>27612</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57">
+        <v>232</v>
+      </c>
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57">
+        <v>1638</v>
+      </c>
+      <c r="F57">
+        <v>1922</v>
+      </c>
+      <c r="G57">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="I57">
+        <v>1766</v>
+      </c>
+      <c r="J57">
+        <v>2131</v>
+      </c>
+      <c r="K57">
+        <v>6626</v>
+      </c>
+      <c r="M57">
+        <v>21902</v>
+      </c>
+      <c r="N57">
+        <v>26624</v>
+      </c>
+      <c r="O57">
+        <v>27273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58">
+        <v>235</v>
+      </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58">
+        <v>1659</v>
+      </c>
+      <c r="F58">
+        <v>2157</v>
+      </c>
+      <c r="G58">
+        <v>2.9609999999999999</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>1.4804999999999999</v>
+      </c>
+      <c r="I58">
+        <v>1874</v>
+      </c>
+      <c r="J58">
+        <v>23860</v>
+      </c>
+      <c r="K58">
+        <v>11735</v>
+      </c>
+      <c r="M58">
+        <v>24391</v>
+      </c>
+      <c r="N58">
+        <v>26552</v>
+      </c>
+      <c r="O58">
+        <v>26724</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59">
+        <v>235</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59">
+        <v>1751</v>
+      </c>
+      <c r="F59">
+        <v>2701</v>
+      </c>
+      <c r="G59">
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="I59">
+        <v>1930</v>
+      </c>
+      <c r="J59">
+        <v>14169</v>
+      </c>
+      <c r="K59">
+        <v>5830</v>
+      </c>
+      <c r="M59">
+        <v>23405</v>
+      </c>
+      <c r="N59">
+        <v>26685</v>
+      </c>
+      <c r="O59">
+        <v>26731</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60">
+        <v>236</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60">
+        <v>1590</v>
+      </c>
+      <c r="F60">
+        <v>2377</v>
+      </c>
+      <c r="G60">
+        <v>2.7829999999999999</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>1.3915</v>
+      </c>
+      <c r="I60">
+        <v>2001</v>
+      </c>
+      <c r="J60">
+        <v>15213</v>
+      </c>
+      <c r="K60">
+        <v>14095</v>
+      </c>
+      <c r="M60">
+        <v>23702</v>
+      </c>
+      <c r="N60">
+        <v>27065</v>
+      </c>
+      <c r="O60">
+        <v>27138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61">
+        <v>236</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>1632</v>
+      </c>
+      <c r="F61">
+        <v>2570</v>
+      </c>
+      <c r="G61">
+        <v>2.8290000000000002</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>1.4145000000000001</v>
+      </c>
+      <c r="I61">
+        <v>1888</v>
+      </c>
+      <c r="J61">
+        <v>22054</v>
+      </c>
+      <c r="K61">
+        <v>5009</v>
+      </c>
+      <c r="M61">
+        <v>22649</v>
+      </c>
+      <c r="N61">
+        <v>27279</v>
+      </c>
+      <c r="O61">
+        <v>27397</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62">
+        <v>238</v>
+      </c>
+      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>1506</v>
+      </c>
+      <c r="F62">
+        <v>2113</v>
+      </c>
+      <c r="G62">
+        <v>2.8919999999999999</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>1.446</v>
+      </c>
+      <c r="I62">
+        <v>1736</v>
+      </c>
+      <c r="J62">
+        <v>27742</v>
+      </c>
+      <c r="K62">
+        <v>4752</v>
+      </c>
+      <c r="M62">
+        <v>23758</v>
+      </c>
+      <c r="N62">
+        <v>27088</v>
+      </c>
+      <c r="O62">
+        <v>27138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63">
+        <v>238</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63">
+        <v>1539</v>
+      </c>
+      <c r="F63">
+        <v>3821</v>
+      </c>
+      <c r="G63">
+        <v>3.0859999999999999</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="I63">
+        <v>2204</v>
+      </c>
+      <c r="J63">
+        <v>27639</v>
+      </c>
+      <c r="K63">
+        <v>6385</v>
+      </c>
+      <c r="M63">
+        <v>24602</v>
+      </c>
+      <c r="N63">
+        <v>27099</v>
+      </c>
+      <c r="O63">
+        <v>27435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64">
+        <v>241</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64">
+        <v>1576</v>
+      </c>
+      <c r="F64">
+        <v>2270</v>
+      </c>
+      <c r="G64">
+        <v>5.4290000000000003</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>2.7145000000000001</v>
+      </c>
+      <c r="I64">
+        <v>1907</v>
+      </c>
+      <c r="J64">
+        <v>3643</v>
+      </c>
+      <c r="K64">
+        <v>12098</v>
+      </c>
+      <c r="M64">
+        <v>23399</v>
+      </c>
+      <c r="N64">
+        <v>27045</v>
+      </c>
+      <c r="O64">
+        <v>27799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65">
+        <v>241</v>
+      </c>
+      <c r="B65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65">
+        <v>1637</v>
+      </c>
+      <c r="F65">
+        <v>2477</v>
+      </c>
+      <c r="G65">
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>1.7175</v>
+      </c>
+      <c r="I65">
+        <v>1926</v>
+      </c>
+      <c r="J65">
+        <v>3851</v>
+      </c>
+      <c r="K65">
+        <v>6345</v>
+      </c>
+      <c r="M65">
+        <v>23048</v>
+      </c>
+      <c r="N65">
+        <v>27076</v>
+      </c>
+      <c r="O65">
+        <v>27580</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66">
+        <v>244</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>1583</v>
+      </c>
+      <c r="F66">
+        <v>3318</v>
+      </c>
+      <c r="G66">
+        <v>2.758</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>1.379</v>
+      </c>
+      <c r="I66">
+        <v>1942</v>
+      </c>
+      <c r="J66">
+        <v>6676</v>
+      </c>
+      <c r="K66">
+        <v>8805</v>
+      </c>
+      <c r="M66">
+        <v>23172</v>
+      </c>
+      <c r="N66">
+        <v>26601</v>
+      </c>
+      <c r="O66">
+        <v>28787</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67">
+        <v>244</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>1585</v>
+      </c>
+      <c r="F67">
+        <v>2060</v>
+      </c>
+      <c r="G67">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H71" si="1">G67/2</f>
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="I67">
+        <v>1855</v>
+      </c>
+      <c r="J67">
+        <v>2400</v>
+      </c>
+      <c r="K67">
+        <v>7311</v>
+      </c>
+      <c r="M67">
+        <v>24196</v>
+      </c>
+      <c r="N67">
+        <v>27009</v>
+      </c>
+      <c r="O67">
+        <v>29901</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68">
+        <v>246</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68">
+        <v>1517</v>
+      </c>
+      <c r="F68">
+        <v>2043</v>
+      </c>
+      <c r="G68">
+        <v>1.4570000000000001</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="1"/>
+        <v>0.72850000000000004</v>
+      </c>
+      <c r="I68">
+        <v>1817</v>
+      </c>
+      <c r="J68">
+        <v>2711</v>
+      </c>
+      <c r="K68">
+        <v>7072</v>
+      </c>
+      <c r="M68">
+        <v>23560</v>
+      </c>
+      <c r="N68">
+        <v>26631</v>
+      </c>
+      <c r="O68">
+        <v>28362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69">
+        <v>246</v>
+      </c>
+      <c r="B69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69">
+        <v>1520</v>
+      </c>
+      <c r="F69">
+        <v>1979</v>
+      </c>
+      <c r="G69">
+        <v>0.222</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>0.111</v>
+      </c>
+      <c r="I69">
+        <v>1789</v>
+      </c>
+      <c r="J69">
+        <v>2175</v>
+      </c>
+      <c r="K69">
+        <v>3729</v>
+      </c>
+      <c r="M69">
+        <v>25074</v>
+      </c>
+      <c r="N69">
+        <v>26901</v>
+      </c>
+      <c r="O69">
+        <v>29481</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70">
+        <v>247</v>
+      </c>
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70">
+        <v>1535</v>
+      </c>
+      <c r="F70">
+        <v>2054</v>
+      </c>
+      <c r="G70">
+        <v>1.06</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>0.53</v>
+      </c>
+      <c r="I70">
+        <v>1817</v>
+      </c>
+      <c r="J70">
+        <v>2737</v>
+      </c>
+      <c r="K70">
+        <v>3878</v>
+      </c>
+      <c r="M70">
+        <v>23237</v>
+      </c>
+      <c r="N70">
+        <v>26588</v>
+      </c>
+      <c r="O70">
+        <v>28385</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71">
+        <v>247</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71">
+        <v>1607</v>
+      </c>
+      <c r="F71">
+        <v>1976</v>
+      </c>
+      <c r="G71">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>0.193</v>
+      </c>
+      <c r="I71">
+        <v>1836</v>
+      </c>
+      <c r="J71">
+        <v>2140</v>
+      </c>
+      <c r="K71">
+        <v>3856</v>
+      </c>
+      <c r="M71">
+        <v>24346</v>
+      </c>
+      <c r="N71">
+        <v>26722</v>
+      </c>
+      <c r="O71">
+        <v>29327</v>
       </c>
     </row>
   </sheetData>
